--- a/data/pca/factorExposure/factorExposure_2019-01-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1108089670180514</v>
+        <v>0.06780609214063459</v>
       </c>
       <c r="C2">
-        <v>0.002337404551000296</v>
+        <v>0.03268516521813034</v>
       </c>
       <c r="D2">
-        <v>-0.05209234135817281</v>
+        <v>0.01816440225301138</v>
       </c>
       <c r="E2">
-        <v>-0.06916636500089407</v>
+        <v>0.04223471393059255</v>
       </c>
       <c r="F2">
-        <v>-0.12172003484061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1337872564118495</v>
+      </c>
+      <c r="G2">
+        <v>-0.06821454648383607</v>
+      </c>
+      <c r="H2">
+        <v>0.05063921377990944</v>
+      </c>
+      <c r="I2">
+        <v>0.1037905211891949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2209493723105842</v>
+        <v>0.1599516199531415</v>
       </c>
       <c r="C3">
-        <v>0.1506496903347359</v>
+        <v>0.1111663978567086</v>
       </c>
       <c r="D3">
-        <v>-0.01018305864928891</v>
+        <v>-0.005796431895317167</v>
       </c>
       <c r="E3">
-        <v>-0.06282103139545636</v>
+        <v>0.006346469730004267</v>
       </c>
       <c r="F3">
-        <v>-0.3391467577022796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3726624573798688</v>
+      </c>
+      <c r="G3">
+        <v>-0.2846879868986886</v>
+      </c>
+      <c r="H3">
+        <v>0.07414620824019084</v>
+      </c>
+      <c r="I3">
+        <v>0.3644828061827262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09775313161913206</v>
+        <v>0.07267734642487708</v>
       </c>
       <c r="C4">
-        <v>0.03597870230355292</v>
+        <v>0.04624010980387214</v>
       </c>
       <c r="D4">
-        <v>-0.04496711437726544</v>
+        <v>-0.0155387428601932</v>
       </c>
       <c r="E4">
-        <v>-0.008945946836522093</v>
+        <v>0.04271340792233596</v>
       </c>
       <c r="F4">
-        <v>-0.07391309332512959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07897633286196389</v>
+      </c>
+      <c r="G4">
+        <v>-0.02963432429499588</v>
+      </c>
+      <c r="H4">
+        <v>0.04581808093341883</v>
+      </c>
+      <c r="I4">
+        <v>0.0560686235706629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02113889443668446</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01031262590656056</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004790202019443264</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005974449275211925</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.007549910053552038</v>
+      </c>
+      <c r="G6">
+        <v>0.01411559109340058</v>
+      </c>
+      <c r="H6">
+        <v>-0.02074510519233792</v>
+      </c>
+      <c r="I6">
+        <v>-0.006458673016898586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04446553887303078</v>
+        <v>0.03493954535247414</v>
       </c>
       <c r="C7">
-        <v>0.01433187154919491</v>
+        <v>0.01873290148625976</v>
       </c>
       <c r="D7">
-        <v>-0.04028718951271683</v>
+        <v>-0.03621225663239797</v>
       </c>
       <c r="E7">
-        <v>-0.04575686524089476</v>
+        <v>0.02979537763757491</v>
       </c>
       <c r="F7">
-        <v>-0.04834457513680407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04754411875923996</v>
+      </c>
+      <c r="G7">
+        <v>-0.05084243518060487</v>
+      </c>
+      <c r="H7">
+        <v>-0.003157330768704692</v>
+      </c>
+      <c r="I7">
+        <v>0.0347216231944015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05112783904941196</v>
+        <v>0.0284492759263437</v>
       </c>
       <c r="C8">
-        <v>0.0537434905456798</v>
+        <v>0.05237826671981931</v>
       </c>
       <c r="D8">
-        <v>-0.02702882665149274</v>
+        <v>-0.01248958603330818</v>
       </c>
       <c r="E8">
-        <v>-0.002458042944243166</v>
+        <v>0.02455838018878231</v>
       </c>
       <c r="F8">
-        <v>-0.07236906077100415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07024369304030696</v>
+      </c>
+      <c r="G8">
+        <v>-0.04616698978170741</v>
+      </c>
+      <c r="H8">
+        <v>0.03803294981486893</v>
+      </c>
+      <c r="I8">
+        <v>0.06461680836199683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08399595903639477</v>
+        <v>0.06168757466881974</v>
       </c>
       <c r="C9">
-        <v>0.02916427561097798</v>
+        <v>0.04316228887021519</v>
       </c>
       <c r="D9">
-        <v>-0.05317763655628432</v>
+        <v>-0.01914685218841153</v>
       </c>
       <c r="E9">
-        <v>0.008873498123608391</v>
+        <v>0.03805531107442419</v>
       </c>
       <c r="F9">
-        <v>-0.0652307813993656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07780848666431137</v>
+      </c>
+      <c r="G9">
+        <v>-0.02521441328546493</v>
+      </c>
+      <c r="H9">
+        <v>0.04159156559481372</v>
+      </c>
+      <c r="I9">
+        <v>0.0288130661569985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02197909940539331</v>
+        <v>0.03546843255017838</v>
       </c>
       <c r="C10">
-        <v>-0.1615110543937323</v>
+        <v>-0.162112187010747</v>
       </c>
       <c r="D10">
-        <v>0.06195354525762509</v>
+        <v>0.01031783275271037</v>
       </c>
       <c r="E10">
-        <v>-0.04783812836874655</v>
+        <v>-0.0436354360475297</v>
       </c>
       <c r="F10">
-        <v>-0.05403858198426111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06746965366891605</v>
+      </c>
+      <c r="G10">
+        <v>-0.03044257582169406</v>
+      </c>
+      <c r="H10">
+        <v>0.03946706590900005</v>
+      </c>
+      <c r="I10">
+        <v>0.05093988373550654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0591541888259042</v>
+        <v>0.04955499697177774</v>
       </c>
       <c r="C11">
-        <v>0.01517212570870022</v>
+        <v>0.03212286672921541</v>
       </c>
       <c r="D11">
-        <v>-0.001243528042246866</v>
+        <v>0.005746762289020885</v>
       </c>
       <c r="E11">
-        <v>-0.02297181103013477</v>
+        <v>0.0119712624849403</v>
       </c>
       <c r="F11">
-        <v>-0.03626725741257212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03712557191420703</v>
+      </c>
+      <c r="G11">
+        <v>0.0001497410661089331</v>
+      </c>
+      <c r="H11">
+        <v>0.01389512597629918</v>
+      </c>
+      <c r="I11">
+        <v>0.02577115232647124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04666087462118629</v>
+        <v>0.04447133716838328</v>
       </c>
       <c r="C12">
-        <v>0.0189853552234496</v>
+        <v>0.02898803901417538</v>
       </c>
       <c r="D12">
-        <v>-0.0056932171226922</v>
+        <v>-0.005459549358371947</v>
       </c>
       <c r="E12">
-        <v>-0.00264617785826903</v>
+        <v>0.01254946263108472</v>
       </c>
       <c r="F12">
-        <v>-0.02896419842022882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01416679250291551</v>
+      </c>
+      <c r="G12">
+        <v>-0.001960773266478298</v>
+      </c>
+      <c r="H12">
+        <v>0.003033454194711994</v>
+      </c>
+      <c r="I12">
+        <v>0.01483575748091131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06345913182157445</v>
+        <v>0.04350777384191686</v>
       </c>
       <c r="C13">
-        <v>0.03048784617575353</v>
+        <v>0.02770114201949775</v>
       </c>
       <c r="D13">
-        <v>-0.00982509952573133</v>
+        <v>0.01507091562741603</v>
       </c>
       <c r="E13">
-        <v>-0.05323718699692845</v>
+        <v>0.01181196087233773</v>
       </c>
       <c r="F13">
-        <v>-0.09809635984421793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.102259137178486</v>
+      </c>
+      <c r="G13">
+        <v>-0.03879196321301731</v>
+      </c>
+      <c r="H13">
+        <v>0.02784534143435072</v>
+      </c>
+      <c r="I13">
+        <v>0.05913599331203869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03458967087616791</v>
+        <v>0.02656822667276659</v>
       </c>
       <c r="C14">
-        <v>0.02098591135094476</v>
+        <v>0.02189615172473866</v>
       </c>
       <c r="D14">
-        <v>-0.03720310601556943</v>
+        <v>-0.006175778890111111</v>
       </c>
       <c r="E14">
-        <v>-0.02486424959123827</v>
+        <v>0.02968532232434805</v>
       </c>
       <c r="F14">
-        <v>-0.01779382189217281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03369001340102997</v>
+      </c>
+      <c r="G14">
+        <v>-0.05578123260238803</v>
+      </c>
+      <c r="H14">
+        <v>0.01297928038615714</v>
+      </c>
+      <c r="I14">
+        <v>0.01670066180001734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05030073231534554</v>
+        <v>0.04297470712172313</v>
       </c>
       <c r="C16">
-        <v>0.02248296904457281</v>
+        <v>0.03478747670111246</v>
       </c>
       <c r="D16">
-        <v>0.0004237551972085001</v>
+        <v>0.0001948292495108867</v>
       </c>
       <c r="E16">
-        <v>-0.01110099404226059</v>
+        <v>0.009730209365868292</v>
       </c>
       <c r="F16">
-        <v>-0.03220998824151949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03429143605766047</v>
+      </c>
+      <c r="G16">
+        <v>-0.004244464628532871</v>
+      </c>
+      <c r="H16">
+        <v>0.004394561412000147</v>
+      </c>
+      <c r="I16">
+        <v>0.02756772371169862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06485850151930968</v>
+        <v>0.05168428012075848</v>
       </c>
       <c r="C19">
-        <v>0.04848150929729746</v>
+        <v>0.04684816249935218</v>
       </c>
       <c r="D19">
-        <v>-0.01732026164112849</v>
+        <v>0.001171624471201815</v>
       </c>
       <c r="E19">
-        <v>-0.02635925278328209</v>
+        <v>0.02625040251004817</v>
       </c>
       <c r="F19">
-        <v>-0.08111343867063521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09041138399194963</v>
+      </c>
+      <c r="G19">
+        <v>-0.0641328173315802</v>
+      </c>
+      <c r="H19">
+        <v>0.01003551664617539</v>
+      </c>
+      <c r="I19">
+        <v>0.06700270119975146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03889861870669242</v>
+        <v>0.0197020493069508</v>
       </c>
       <c r="C20">
-        <v>0.0324283011638364</v>
+        <v>0.03107905822020048</v>
       </c>
       <c r="D20">
-        <v>-0.03561446984421394</v>
+        <v>-0.006152856881966724</v>
       </c>
       <c r="E20">
-        <v>-0.01340186370040865</v>
+        <v>0.02457191770376205</v>
       </c>
       <c r="F20">
-        <v>-0.062422021768113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06224556244849527</v>
+      </c>
+      <c r="G20">
+        <v>-0.05814320380051488</v>
+      </c>
+      <c r="H20">
+        <v>0.006800461957636309</v>
+      </c>
+      <c r="I20">
+        <v>0.07685608246005483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03382370082061644</v>
+        <v>0.03304089961473423</v>
       </c>
       <c r="C21">
-        <v>0.03643320330317827</v>
+        <v>0.03098945275160674</v>
       </c>
       <c r="D21">
-        <v>-0.0177818141865896</v>
+        <v>-0.01227648723145063</v>
       </c>
       <c r="E21">
-        <v>-0.05549342288825726</v>
+        <v>0.009958095341559309</v>
       </c>
       <c r="F21">
-        <v>-0.0903507717527033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07944295542169082</v>
+      </c>
+      <c r="G21">
+        <v>-0.0213344520977979</v>
+      </c>
+      <c r="H21">
+        <v>0.04518484308761557</v>
+      </c>
+      <c r="I21">
+        <v>0.0009692151230341575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05116511393110989</v>
+        <v>0.04179155974832758</v>
       </c>
       <c r="C24">
-        <v>0.01982938971230977</v>
+        <v>0.02990709833284304</v>
       </c>
       <c r="D24">
-        <v>-0.006496835143679228</v>
+        <v>-0.0004131085506544373</v>
       </c>
       <c r="E24">
-        <v>-0.01190102942684411</v>
+        <v>0.01290001566479059</v>
       </c>
       <c r="F24">
-        <v>-0.04111935274713794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03743928348833774</v>
+      </c>
+      <c r="G24">
+        <v>0.0006541068278606815</v>
+      </c>
+      <c r="H24">
+        <v>0.005695327001964659</v>
+      </c>
+      <c r="I24">
+        <v>0.02835047591276955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05234793106976146</v>
+        <v>0.0482190814115935</v>
       </c>
       <c r="C25">
-        <v>0.01407474241877753</v>
+        <v>0.02647604793470401</v>
       </c>
       <c r="D25">
-        <v>-0.003717165570629248</v>
+        <v>0.0006130699783845544</v>
       </c>
       <c r="E25">
-        <v>-0.01593111233657194</v>
+        <v>0.01097820517488463</v>
       </c>
       <c r="F25">
-        <v>-0.0373845641930068</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04278438435387937</v>
+      </c>
+      <c r="G25">
+        <v>0.0004079238017975519</v>
+      </c>
+      <c r="H25">
+        <v>0.0119494386283351</v>
+      </c>
+      <c r="I25">
+        <v>0.01775991854386813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02286332668504792</v>
+        <v>0.01714430487050909</v>
       </c>
       <c r="C26">
-        <v>0.03271429470244531</v>
+        <v>0.02882359590705182</v>
       </c>
       <c r="D26">
-        <v>-0.01992544400060021</v>
+        <v>0.004203394834346189</v>
       </c>
       <c r="E26">
-        <v>-0.04065499059360474</v>
+        <v>0.005124266928562155</v>
       </c>
       <c r="F26">
-        <v>-0.01988959575411533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04118123520200741</v>
+      </c>
+      <c r="G26">
+        <v>-0.03426301612193638</v>
+      </c>
+      <c r="H26">
+        <v>0.01137685410637834</v>
+      </c>
+      <c r="I26">
+        <v>0.01939717195754395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1201515096164248</v>
+        <v>0.07293611685131141</v>
       </c>
       <c r="C27">
-        <v>0.01823919750044074</v>
+        <v>0.02614130067944422</v>
       </c>
       <c r="D27">
-        <v>-0.0368993927108485</v>
+        <v>-0.005056404414352737</v>
       </c>
       <c r="E27">
-        <v>-0.01286520734111358</v>
+        <v>0.03652229173321072</v>
       </c>
       <c r="F27">
-        <v>-0.08120418375457333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06383685899262941</v>
+      </c>
+      <c r="G27">
+        <v>-0.01961342845005126</v>
+      </c>
+      <c r="H27">
+        <v>0.02520081013363417</v>
+      </c>
+      <c r="I27">
+        <v>0.03825601085102071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01968531515629012</v>
+        <v>0.0525731209033632</v>
       </c>
       <c r="C28">
-        <v>-0.2383443505709416</v>
+        <v>-0.2430516598576505</v>
       </c>
       <c r="D28">
-        <v>0.09559430484711286</v>
+        <v>0.006349470521792912</v>
       </c>
       <c r="E28">
-        <v>-0.02813717737964978</v>
+        <v>-0.06186577331608393</v>
       </c>
       <c r="F28">
-        <v>-0.03542206151363309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0578356206933555</v>
+      </c>
+      <c r="G28">
+        <v>-0.03744830138321968</v>
+      </c>
+      <c r="H28">
+        <v>0.04707009652819674</v>
+      </c>
+      <c r="I28">
+        <v>0.07694670687315777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02753492801984544</v>
+        <v>0.02305494681976946</v>
       </c>
       <c r="C29">
-        <v>0.01886445754219329</v>
+        <v>0.0190091526435126</v>
       </c>
       <c r="D29">
-        <v>-0.04165419384889255</v>
+        <v>-0.009530926025477744</v>
       </c>
       <c r="E29">
-        <v>-0.01724890606182943</v>
+        <v>0.03026908579367675</v>
       </c>
       <c r="F29">
-        <v>-0.02229819995955261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02993758943228654</v>
+      </c>
+      <c r="G29">
+        <v>-0.05561118820445222</v>
+      </c>
+      <c r="H29">
+        <v>0.01747411867989411</v>
+      </c>
+      <c r="I29">
+        <v>0.001065063868390473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1142931945909219</v>
+        <v>0.09021904178341028</v>
       </c>
       <c r="C30">
-        <v>0.02325523379047557</v>
+        <v>0.05010007524408316</v>
       </c>
       <c r="D30">
-        <v>-0.02845036705082548</v>
+        <v>0.03729648619292584</v>
       </c>
       <c r="E30">
-        <v>-0.05159815672079555</v>
+        <v>0.03606419038820236</v>
       </c>
       <c r="F30">
-        <v>-0.09617116691466046</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1034773298091372</v>
+      </c>
+      <c r="G30">
+        <v>-0.01738286341941419</v>
+      </c>
+      <c r="H30">
+        <v>-0.00940103735448888</v>
+      </c>
+      <c r="I30">
+        <v>0.0238722239770777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06954947770085995</v>
+        <v>0.06045249592234839</v>
       </c>
       <c r="C31">
-        <v>0.01567258350270484</v>
+        <v>0.02119505206981546</v>
       </c>
       <c r="D31">
-        <v>-0.02412121272221939</v>
+        <v>0.009731753011929776</v>
       </c>
       <c r="E31">
-        <v>-0.04478070286150914</v>
+        <v>0.02515067306042531</v>
       </c>
       <c r="F31">
-        <v>0.04782106506630868</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.004366298691276663</v>
+      </c>
+      <c r="G31">
+        <v>-0.04597218293683451</v>
+      </c>
+      <c r="H31">
+        <v>0.03134927991435065</v>
+      </c>
+      <c r="I31">
+        <v>0.01279850057921238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07112147419659853</v>
+        <v>0.04286797123701221</v>
       </c>
       <c r="C32">
-        <v>0.03432886021380573</v>
+        <v>0.04558222741156066</v>
       </c>
       <c r="D32">
-        <v>-0.03879957555722922</v>
+        <v>-0.01573213970079264</v>
       </c>
       <c r="E32">
-        <v>-0.03363904085715912</v>
+        <v>0.03985192902220761</v>
       </c>
       <c r="F32">
-        <v>-0.08767487868786211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08192599608611843</v>
+      </c>
+      <c r="G32">
+        <v>-0.04208084505281915</v>
+      </c>
+      <c r="H32">
+        <v>0.02291763087248393</v>
+      </c>
+      <c r="I32">
+        <v>0.05288374230971405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06957507117789473</v>
+        <v>0.0561237253517102</v>
       </c>
       <c r="C33">
-        <v>0.0577743050668813</v>
+        <v>0.05570506497169656</v>
       </c>
       <c r="D33">
-        <v>-0.03171092833972027</v>
+        <v>0.01825416714938885</v>
       </c>
       <c r="E33">
-        <v>-0.05141870132203782</v>
+        <v>0.01992811707792538</v>
       </c>
       <c r="F33">
-        <v>-0.05466545608146909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07152879884532574</v>
+      </c>
+      <c r="G33">
+        <v>-0.03919426244029894</v>
+      </c>
+      <c r="H33">
+        <v>0.0367235635250984</v>
+      </c>
+      <c r="I33">
+        <v>0.02890896690599889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05083448373462242</v>
+        <v>0.04365448788704108</v>
       </c>
       <c r="C34">
-        <v>0.02033849335287395</v>
+        <v>0.03465027899045495</v>
       </c>
       <c r="D34">
-        <v>-0.01170727860055436</v>
+        <v>-0.005068905560849947</v>
       </c>
       <c r="E34">
-        <v>-0.01080657114208552</v>
+        <v>0.0200237705316383</v>
       </c>
       <c r="F34">
-        <v>-0.0259764987455177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03231925072252918</v>
+      </c>
+      <c r="G34">
+        <v>-0.00560050787693754</v>
+      </c>
+      <c r="H34">
+        <v>0.007339285739529237</v>
+      </c>
+      <c r="I34">
+        <v>0.02351274887928225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.0160003492563161</v>
+        <v>0.01580854082491691</v>
       </c>
       <c r="C36">
-        <v>0.001057645190659828</v>
+        <v>0.004863810685097033</v>
       </c>
       <c r="D36">
-        <v>-0.01619448624300497</v>
+        <v>-0.004710170621414034</v>
       </c>
       <c r="E36">
-        <v>-0.01297840757304504</v>
+        <v>0.01099565296535674</v>
       </c>
       <c r="F36">
-        <v>-0.01368060593767751</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02360195619648084</v>
+      </c>
+      <c r="G36">
+        <v>-0.03880876160751782</v>
+      </c>
+      <c r="H36">
+        <v>0.01822768678474488</v>
+      </c>
+      <c r="I36">
+        <v>-0.008784401397941878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04487217443430066</v>
+        <v>0.03458149439941606</v>
       </c>
       <c r="C38">
-        <v>0.0161095818118211</v>
+        <v>0.01666042624218751</v>
       </c>
       <c r="D38">
-        <v>-0.03095183636554317</v>
+        <v>-0.004418723935508648</v>
       </c>
       <c r="E38">
-        <v>-0.002462283788032451</v>
+        <v>0.01379942315049788</v>
       </c>
       <c r="F38">
-        <v>-0.0245487879961652</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0474969279032885</v>
+      </c>
+      <c r="G38">
+        <v>-0.02453134598659373</v>
+      </c>
+      <c r="H38">
+        <v>0.02671978921942594</v>
+      </c>
+      <c r="I38">
+        <v>-0.01204507920662911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07130206092814853</v>
+        <v>0.05429900723031981</v>
       </c>
       <c r="C39">
-        <v>0.02308465703285978</v>
+        <v>0.04663558046807357</v>
       </c>
       <c r="D39">
-        <v>-0.01370112960156632</v>
+        <v>0.004768595548778896</v>
       </c>
       <c r="E39">
-        <v>-0.02832148742522481</v>
+        <v>0.02160314276860013</v>
       </c>
       <c r="F39">
-        <v>-0.02841164230141113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05405562937010384</v>
+      </c>
+      <c r="G39">
+        <v>0.002360546813041368</v>
+      </c>
+      <c r="H39">
+        <v>0.01998880359103951</v>
+      </c>
+      <c r="I39">
+        <v>0.004009747972163209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07878426149092665</v>
+        <v>0.0557135733099002</v>
       </c>
       <c r="C40">
-        <v>0.03582405343486623</v>
+        <v>0.04292345259142351</v>
       </c>
       <c r="D40">
-        <v>-0.02846928755769368</v>
+        <v>0.02042499081007841</v>
       </c>
       <c r="E40">
-        <v>-0.02961016716372005</v>
+        <v>0.02813037967312035</v>
       </c>
       <c r="F40">
-        <v>-0.1034618450087152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09343325726541382</v>
+      </c>
+      <c r="G40">
+        <v>-0.03856923654584372</v>
+      </c>
+      <c r="H40">
+        <v>0.02734063812686425</v>
+      </c>
+      <c r="I40">
+        <v>0.1059317741542878</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.0003058265642863521</v>
+        <v>0.003503544919898518</v>
       </c>
       <c r="C41">
-        <v>0.02426824026496985</v>
+        <v>0.01080566392645411</v>
       </c>
       <c r="D41">
-        <v>-0.03656547627739743</v>
+        <v>-2.458704145802777e-05</v>
       </c>
       <c r="E41">
-        <v>-0.02086180676806814</v>
+        <v>0.01058518104262343</v>
       </c>
       <c r="F41">
-        <v>0.008889358576081948</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.009631481005274762</v>
+      </c>
+      <c r="G41">
+        <v>-0.04457963360210951</v>
+      </c>
+      <c r="H41">
+        <v>0.03666865191984826</v>
+      </c>
+      <c r="I41">
+        <v>0.01354775006881178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1475245113452365</v>
+        <v>0.2254505648996816</v>
       </c>
       <c r="C42">
-        <v>0.4247219684886017</v>
+        <v>0.2965614258545221</v>
       </c>
       <c r="D42">
-        <v>0.8583367956052619</v>
+        <v>0.05281944600477106</v>
       </c>
       <c r="E42">
-        <v>0.02837615307451451</v>
+        <v>-0.8971477310258786</v>
       </c>
       <c r="F42">
-        <v>0.09219250335974752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1527902399041176</v>
+      </c>
+      <c r="G42">
+        <v>-0.002809001730084474</v>
+      </c>
+      <c r="H42">
+        <v>-0.00999384446679016</v>
+      </c>
+      <c r="I42">
+        <v>0.0541425991279773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005012115398204382</v>
+        <v>0.008132829647551373</v>
       </c>
       <c r="C43">
-        <v>0.0257777236945795</v>
+        <v>0.01433688502197766</v>
       </c>
       <c r="D43">
-        <v>-0.03506001121956392</v>
+        <v>0.002498751771932549</v>
       </c>
       <c r="E43">
-        <v>-0.02813060263751716</v>
+        <v>0.0110031504825525</v>
       </c>
       <c r="F43">
-        <v>-0.01811536042737579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02376376427145043</v>
+      </c>
+      <c r="G43">
+        <v>-0.03346168774415777</v>
+      </c>
+      <c r="H43">
+        <v>0.02119231819317813</v>
+      </c>
+      <c r="I43">
+        <v>0.02374679320094313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04263344024469867</v>
+        <v>0.02954143242291222</v>
       </c>
       <c r="C44">
-        <v>0.04463230208012455</v>
+        <v>0.04126816005855116</v>
       </c>
       <c r="D44">
-        <v>-0.03452468662260068</v>
+        <v>-0.002265493156208653</v>
       </c>
       <c r="E44">
-        <v>-0.06471997094238403</v>
+        <v>0.01776537855397718</v>
       </c>
       <c r="F44">
-        <v>-0.1036387989105992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1158189780025451</v>
+      </c>
+      <c r="G44">
+        <v>-0.09769967993600555</v>
+      </c>
+      <c r="H44">
+        <v>0.05228502624714444</v>
+      </c>
+      <c r="I44">
+        <v>0.0534879246019504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03123225376387892</v>
+        <v>0.02551646814628532</v>
       </c>
       <c r="C46">
-        <v>0.02512717033025727</v>
+        <v>0.03507342025381712</v>
       </c>
       <c r="D46">
-        <v>-0.04033365845970592</v>
+        <v>0.00279118669962876</v>
       </c>
       <c r="E46">
-        <v>-0.03314414810944462</v>
+        <v>0.03460935051621056</v>
       </c>
       <c r="F46">
-        <v>-0.011152716675766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04211062038896354</v>
+      </c>
+      <c r="G46">
+        <v>-0.05946356676731136</v>
+      </c>
+      <c r="H46">
+        <v>0.01432670649343991</v>
+      </c>
+      <c r="I46">
+        <v>0.007189287229813318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09616205495845223</v>
+        <v>0.08729511996519845</v>
       </c>
       <c r="C47">
-        <v>0.008346907338452119</v>
+        <v>0.01731075982229781</v>
       </c>
       <c r="D47">
-        <v>-0.02654511438833329</v>
+        <v>0.00482611887626679</v>
       </c>
       <c r="E47">
-        <v>-0.005398223073804031</v>
+        <v>0.02773124070204559</v>
       </c>
       <c r="F47">
-        <v>0.02971943237437883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01704208698255225</v>
+      </c>
+      <c r="G47">
+        <v>-0.06052156705235142</v>
+      </c>
+      <c r="H47">
+        <v>0.02755977902771093</v>
+      </c>
+      <c r="I47">
+        <v>0.03365704845195941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02111664013061673</v>
+        <v>0.02080431675624615</v>
       </c>
       <c r="C48">
-        <v>0.02232939042666937</v>
+        <v>0.01943005422470067</v>
       </c>
       <c r="D48">
-        <v>-0.0247882161050591</v>
+        <v>-0.001086214243179391</v>
       </c>
       <c r="E48">
-        <v>-0.02416598682949794</v>
+        <v>0.01594103540757252</v>
       </c>
       <c r="F48">
-        <v>-0.01619710979981965</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02406168466320012</v>
+      </c>
+      <c r="G48">
+        <v>-0.02735433933837739</v>
+      </c>
+      <c r="H48">
+        <v>0.01497613557667658</v>
+      </c>
+      <c r="I48">
+        <v>0.0100692311009032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0932938210418517</v>
+        <v>0.08804321176732466</v>
       </c>
       <c r="C50">
-        <v>0.03152244346442893</v>
+        <v>0.03822241899413591</v>
       </c>
       <c r="D50">
-        <v>-0.03142144418381949</v>
+        <v>-0.0108454789250126</v>
       </c>
       <c r="E50">
-        <v>-0.02378578127385176</v>
+        <v>0.0288647530915891</v>
       </c>
       <c r="F50">
-        <v>0.0343266445218812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.009016198645691587</v>
+      </c>
+      <c r="G50">
+        <v>-0.03506530211542666</v>
+      </c>
+      <c r="H50">
+        <v>-0.01132330727583026</v>
+      </c>
+      <c r="I50">
+        <v>-0.004824485336055727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05762716137496004</v>
+        <v>0.03918142510565178</v>
       </c>
       <c r="C51">
-        <v>-0.01517762243829627</v>
+        <v>-0.004407676379203478</v>
       </c>
       <c r="D51">
-        <v>-0.007414675909960587</v>
+        <v>0.01112288302410267</v>
       </c>
       <c r="E51">
-        <v>-0.0688160222879329</v>
+        <v>0.01111258752444809</v>
       </c>
       <c r="F51">
-        <v>-0.04874986554468499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09117713352899535</v>
+      </c>
+      <c r="G51">
+        <v>-0.06938718992285135</v>
+      </c>
+      <c r="H51">
+        <v>0.05197780272960336</v>
+      </c>
+      <c r="I51">
+        <v>0.02716726787794556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1369563212407633</v>
+        <v>0.1247803409963043</v>
       </c>
       <c r="C53">
-        <v>0.01549776201714135</v>
+        <v>0.03458117205949644</v>
       </c>
       <c r="D53">
-        <v>-0.05020532882035108</v>
+        <v>0.005071029465970327</v>
       </c>
       <c r="E53">
-        <v>-0.001779441447169816</v>
+        <v>0.05731689293959154</v>
       </c>
       <c r="F53">
-        <v>0.0632669794543122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0492315776412427</v>
+      </c>
+      <c r="G53">
+        <v>-0.008569626308985166</v>
+      </c>
+      <c r="H53">
+        <v>0.03021262309110472</v>
+      </c>
+      <c r="I53">
+        <v>0.04017139426652512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02864306680216549</v>
+        <v>0.02720375821507258</v>
       </c>
       <c r="C54">
-        <v>0.003336506166371779</v>
+        <v>0.005202908365330821</v>
       </c>
       <c r="D54">
-        <v>-0.03779660599036598</v>
+        <v>-0.00518294835164026</v>
       </c>
       <c r="E54">
-        <v>-0.02537555103147402</v>
+        <v>0.02909922447944294</v>
       </c>
       <c r="F54">
-        <v>-0.01927979895068251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02901466356060738</v>
+      </c>
+      <c r="G54">
+        <v>-0.0568278232429727</v>
+      </c>
+      <c r="H54">
+        <v>0.03221811051279043</v>
+      </c>
+      <c r="I54">
+        <v>0.003045942176797082</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1005159668997237</v>
+        <v>0.09744599771558003</v>
       </c>
       <c r="C55">
-        <v>-0.003043486395892869</v>
+        <v>0.03012886885631436</v>
       </c>
       <c r="D55">
-        <v>-0.03836237537289863</v>
+        <v>-0.01297665999356843</v>
       </c>
       <c r="E55">
-        <v>0.0373455016940409</v>
+        <v>0.03809107526222567</v>
       </c>
       <c r="F55">
-        <v>0.01303042443420878</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03630293060184844</v>
+      </c>
+      <c r="G55">
+        <v>-0.01868350591124181</v>
+      </c>
+      <c r="H55">
+        <v>-0.00903465463775284</v>
+      </c>
+      <c r="I55">
+        <v>0.02220462231790267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1734110748982699</v>
+        <v>0.1642221864632259</v>
       </c>
       <c r="C56">
-        <v>-0.03682666069106755</v>
+        <v>0.01325183351689323</v>
       </c>
       <c r="D56">
-        <v>-0.07675048315202364</v>
+        <v>0.0003170820183889969</v>
       </c>
       <c r="E56">
-        <v>0.0488898824482747</v>
+        <v>0.08717102084785999</v>
       </c>
       <c r="F56">
-        <v>0.09502274405295047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0926285733537299</v>
+      </c>
+      <c r="G56">
+        <v>0.04243414528252139</v>
+      </c>
+      <c r="H56">
+        <v>-0.007189458126534608</v>
+      </c>
+      <c r="I56">
+        <v>0.04598377980596256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08372952516609028</v>
+        <v>0.06709511380290291</v>
       </c>
       <c r="C57">
-        <v>0.02774989789823339</v>
+        <v>0.03272054335591817</v>
       </c>
       <c r="D57">
-        <v>-0.02306644522463838</v>
+        <v>0.01924960823979737</v>
       </c>
       <c r="E57">
-        <v>-0.05480193510828888</v>
+        <v>0.008020581256547405</v>
       </c>
       <c r="F57">
-        <v>-0.02563171526068736</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06525922389305842</v>
+      </c>
+      <c r="G57">
+        <v>-0.02344968612136292</v>
+      </c>
+      <c r="H57">
+        <v>0.01738151749544075</v>
+      </c>
+      <c r="I57">
+        <v>0.02395494459919844</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1990867244123468</v>
+        <v>0.2078236517071676</v>
       </c>
       <c r="C58">
-        <v>0.04130554677253091</v>
+        <v>0.1066298630103698</v>
       </c>
       <c r="D58">
-        <v>-0.004345472654779629</v>
+        <v>0.0901953692262354</v>
       </c>
       <c r="E58">
-        <v>-0.08217693474097063</v>
+        <v>0.0007645064057865214</v>
       </c>
       <c r="F58">
-        <v>-0.1040588342542205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2671399892184969</v>
+      </c>
+      <c r="G58">
+        <v>-0.3791309582083351</v>
+      </c>
+      <c r="H58">
+        <v>-0.3395932480759163</v>
+      </c>
+      <c r="I58">
+        <v>-0.6844183403040971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02262806815561035</v>
+        <v>0.05156752428247077</v>
       </c>
       <c r="C59">
-        <v>-0.1954846434356181</v>
+        <v>-0.1988864518015284</v>
       </c>
       <c r="D59">
-        <v>0.04621013080882562</v>
+        <v>0.01992802391025618</v>
       </c>
       <c r="E59">
-        <v>-0.03003315881077621</v>
+        <v>-0.02290678338356111</v>
       </c>
       <c r="F59">
-        <v>-0.04107922005979817</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06897002547171467</v>
+      </c>
+      <c r="G59">
+        <v>0.004235371071977827</v>
+      </c>
+      <c r="H59">
+        <v>0.01844979162757792</v>
+      </c>
+      <c r="I59">
+        <v>0.01930458593116916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1897750423582805</v>
+        <v>0.1928250034556111</v>
       </c>
       <c r="C60">
-        <v>-0.07955352339406188</v>
+        <v>-0.05379000519396242</v>
       </c>
       <c r="D60">
-        <v>0.02444948780480914</v>
+        <v>0.05204856857467547</v>
       </c>
       <c r="E60">
-        <v>-0.1096185918398396</v>
+        <v>0.00856483831200138</v>
       </c>
       <c r="F60">
-        <v>-0.1530935289813878</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.203377174920241</v>
+      </c>
+      <c r="G60">
+        <v>0.3125292897024773</v>
+      </c>
+      <c r="H60">
+        <v>0.01624781599729188</v>
+      </c>
+      <c r="I60">
+        <v>-0.03196683983764218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04223320808408138</v>
+        <v>0.03885621254337519</v>
       </c>
       <c r="C61">
-        <v>0.01231887092198178</v>
+        <v>0.03020914518039145</v>
       </c>
       <c r="D61">
-        <v>-0.007506509017300652</v>
+        <v>-0.001299818432758477</v>
       </c>
       <c r="E61">
-        <v>-0.01196075956516893</v>
+        <v>0.00974398290511534</v>
       </c>
       <c r="F61">
-        <v>-0.03082521535024508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03667937805138458</v>
+      </c>
+      <c r="G61">
+        <v>0.006113989823848836</v>
+      </c>
+      <c r="H61">
+        <v>0.0132289724210692</v>
+      </c>
+      <c r="I61">
+        <v>-0.009250509750588559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04204473337610872</v>
+        <v>0.03123847731774312</v>
       </c>
       <c r="C63">
-        <v>0.01475110202767149</v>
+        <v>0.02338671043247401</v>
       </c>
       <c r="D63">
-        <v>-0.02249383893277996</v>
+        <v>0.001712448705466104</v>
       </c>
       <c r="E63">
-        <v>-0.0329707373538525</v>
+        <v>0.01733314064176278</v>
       </c>
       <c r="F63">
-        <v>-0.02399412660219415</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02654808681756196</v>
+      </c>
+      <c r="G63">
+        <v>-0.05046525322260714</v>
+      </c>
+      <c r="H63">
+        <v>0.003597573120046204</v>
+      </c>
+      <c r="I63">
+        <v>0.0341517355687309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07466898246059035</v>
+        <v>0.06102889463815922</v>
       </c>
       <c r="C64">
-        <v>0.03411090564142773</v>
+        <v>0.04078587838508684</v>
       </c>
       <c r="D64">
-        <v>-0.06929115789487952</v>
+        <v>-0.01434630188429016</v>
       </c>
       <c r="E64">
-        <v>0.01775893438263262</v>
+        <v>0.04463595872533525</v>
       </c>
       <c r="F64">
-        <v>-0.03985969619760798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04061712534580461</v>
+      </c>
+      <c r="G64">
+        <v>-0.01152337745909918</v>
+      </c>
+      <c r="H64">
+        <v>0.07364691490900818</v>
+      </c>
+      <c r="I64">
+        <v>0.05464218206510248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02317393871670514</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01063217343087996</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005349191899214852</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006648907149122181</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.004008971694895184</v>
+      </c>
+      <c r="G65">
+        <v>0.01855577700080448</v>
+      </c>
+      <c r="H65">
+        <v>-0.01950833175458685</v>
+      </c>
+      <c r="I65">
+        <v>-0.005805971887499277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07939152354131622</v>
+        <v>0.06773729880188613</v>
       </c>
       <c r="C66">
-        <v>0.03132554256749534</v>
+        <v>0.05468730112713289</v>
       </c>
       <c r="D66">
-        <v>-0.04247415748974948</v>
+        <v>0.01207947573817662</v>
       </c>
       <c r="E66">
-        <v>-0.04087026366902236</v>
+        <v>0.05091696173975701</v>
       </c>
       <c r="F66">
-        <v>-0.06507322116257484</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06613284159825256</v>
+      </c>
+      <c r="G66">
+        <v>0.006617724524878027</v>
+      </c>
+      <c r="H66">
+        <v>0.007703378645723517</v>
+      </c>
+      <c r="I66">
+        <v>0.03823188745093156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05518627996382441</v>
+        <v>0.04743290514419317</v>
       </c>
       <c r="C67">
-        <v>-0.007372421485956278</v>
+        <v>-0.001858795008039588</v>
       </c>
       <c r="D67">
-        <v>-0.01320594951415228</v>
+        <v>0.001322846905765387</v>
       </c>
       <c r="E67">
-        <v>-0.009724513811588727</v>
+        <v>0.009405644759090882</v>
       </c>
       <c r="F67">
-        <v>-0.01587345821290921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03677718336313224</v>
+      </c>
+      <c r="G67">
+        <v>-0.00628074275423532</v>
+      </c>
+      <c r="H67">
+        <v>0.03964969600268323</v>
+      </c>
+      <c r="I67">
+        <v>-0.02606274629117509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03577359390878961</v>
+        <v>0.06255728768127825</v>
       </c>
       <c r="C68">
-        <v>-0.2333630837748489</v>
+        <v>-0.2355719655239883</v>
       </c>
       <c r="D68">
-        <v>0.08041618520625521</v>
+        <v>0.0201796410318727</v>
       </c>
       <c r="E68">
-        <v>-0.02851137430462834</v>
+        <v>-0.0454680459491364</v>
       </c>
       <c r="F68">
-        <v>-0.03278798808342764</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05141090098130605</v>
+      </c>
+      <c r="G68">
+        <v>-0.01883984024488132</v>
+      </c>
+      <c r="H68">
+        <v>-0.001491431112068765</v>
+      </c>
+      <c r="I68">
+        <v>0.04110228013974265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07655436196299284</v>
+        <v>0.07294081361524857</v>
       </c>
       <c r="C69">
-        <v>0.005339751273393988</v>
+        <v>0.01813975135297558</v>
       </c>
       <c r="D69">
-        <v>-0.0276319860283323</v>
+        <v>0.005836270405740832</v>
       </c>
       <c r="E69">
-        <v>-0.006997349220951336</v>
+        <v>0.03171277998396044</v>
       </c>
       <c r="F69">
-        <v>0.02078376168333643</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004822708579461194</v>
+      </c>
+      <c r="G69">
+        <v>-0.03479397865933322</v>
+      </c>
+      <c r="H69">
+        <v>0.02031512445286462</v>
+      </c>
+      <c r="I69">
+        <v>0.016992541116738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.02992871682039676</v>
+        <v>0.05717221925155064</v>
       </c>
       <c r="C71">
-        <v>-0.2735650512740697</v>
+        <v>-0.2533442907252941</v>
       </c>
       <c r="D71">
-        <v>0.1032647076344028</v>
+        <v>0.0238832680354068</v>
       </c>
       <c r="E71">
-        <v>-0.07802698787483103</v>
+        <v>-0.0731447867430924</v>
       </c>
       <c r="F71">
-        <v>-0.04999997221631364</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07020046576131857</v>
+      </c>
+      <c r="G71">
+        <v>-0.02647207313081083</v>
+      </c>
+      <c r="H71">
+        <v>0.02706125275965417</v>
+      </c>
+      <c r="I71">
+        <v>0.04981466234093319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1323728043108631</v>
+        <v>0.1248385812968504</v>
       </c>
       <c r="C72">
-        <v>-0.02696504518109438</v>
+        <v>0.02861350215492246</v>
       </c>
       <c r="D72">
-        <v>-0.03663064694489033</v>
+        <v>0.004553099408912316</v>
       </c>
       <c r="E72">
-        <v>-0.02035758505005097</v>
+        <v>0.07074930487570069</v>
       </c>
       <c r="F72">
-        <v>-0.06617322052508988</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08033849969863457</v>
+      </c>
+      <c r="G72">
+        <v>0.03292725161962384</v>
+      </c>
+      <c r="H72">
+        <v>-0.04341052055048986</v>
+      </c>
+      <c r="I72">
+        <v>-0.1234972447802754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2890173416720748</v>
+        <v>0.2734497349090275</v>
       </c>
       <c r="C73">
-        <v>-0.1552286565921185</v>
+        <v>-0.07622779803878844</v>
       </c>
       <c r="D73">
-        <v>0.102232758157325</v>
+        <v>0.08998469759314913</v>
       </c>
       <c r="E73">
-        <v>-0.1658284218674681</v>
+        <v>-0.03983887654810453</v>
       </c>
       <c r="F73">
-        <v>-0.3069717464465239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3181586830961641</v>
+      </c>
+      <c r="G73">
+        <v>0.5249905192893827</v>
+      </c>
+      <c r="H73">
+        <v>-0.04656030836134607</v>
+      </c>
+      <c r="I73">
+        <v>-0.1119240559479169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1552075199270719</v>
+        <v>0.1496188032015518</v>
       </c>
       <c r="C74">
-        <v>0.008430912659488385</v>
+        <v>0.03176369822601553</v>
       </c>
       <c r="D74">
-        <v>-0.04243518359897566</v>
+        <v>0.01203412257836287</v>
       </c>
       <c r="E74">
-        <v>-0.003024522911109458</v>
+        <v>0.05120540518098134</v>
       </c>
       <c r="F74">
-        <v>0.05212740083235479</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06543538173588573</v>
+      </c>
+      <c r="G74">
+        <v>0.02854327583486631</v>
+      </c>
+      <c r="H74">
+        <v>-0.005110803064800704</v>
+      </c>
+      <c r="I74">
+        <v>0.06931363899012379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2367082598939385</v>
+        <v>0.245210380828751</v>
       </c>
       <c r="C75">
-        <v>-0.01932407031682292</v>
+        <v>0.01635274205367663</v>
       </c>
       <c r="D75">
-        <v>-0.07254929152161853</v>
+        <v>0.02809371378008302</v>
       </c>
       <c r="E75">
-        <v>0.01735940625000774</v>
+        <v>0.1139354447700839</v>
       </c>
       <c r="F75">
-        <v>0.1467365734790025</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1471705052651273</v>
+      </c>
+      <c r="G75">
+        <v>0.01596699023899474</v>
+      </c>
+      <c r="H75">
+        <v>0.01487360583916904</v>
+      </c>
+      <c r="I75">
+        <v>0.04775125859433277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2488821199741007</v>
+        <v>0.2628862414958303</v>
       </c>
       <c r="C76">
-        <v>-0.05835049100879496</v>
+        <v>0.002974779722661855</v>
       </c>
       <c r="D76">
-        <v>-0.09287059369289929</v>
+        <v>-0.0125494852331523</v>
       </c>
       <c r="E76">
-        <v>0.07689558113547619</v>
+        <v>0.1357758357996948</v>
       </c>
       <c r="F76">
-        <v>0.1179816760075076</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1833259279545839</v>
+      </c>
+      <c r="G76">
+        <v>0.04287971041326421</v>
+      </c>
+      <c r="H76">
+        <v>-0.05934018641515848</v>
+      </c>
+      <c r="I76">
+        <v>0.05393487109327642</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1357181706055617</v>
+        <v>0.1207316934901629</v>
       </c>
       <c r="C77">
-        <v>0.06364557475753366</v>
+        <v>0.07644502456670579</v>
       </c>
       <c r="D77">
-        <v>0.01296604628821431</v>
+        <v>0.00699467202484882</v>
       </c>
       <c r="E77">
-        <v>-0.03628509434090091</v>
+        <v>-0.02817455794595169</v>
       </c>
       <c r="F77">
-        <v>-0.1560220865821576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1570841148190906</v>
+      </c>
+      <c r="G77">
+        <v>-0.2099214611926787</v>
+      </c>
+      <c r="H77">
+        <v>-0.0218795490826035</v>
+      </c>
+      <c r="I77">
+        <v>0.2447034340076971</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09746453199208333</v>
+        <v>0.07352597304046878</v>
       </c>
       <c r="C78">
-        <v>0.06895201165373015</v>
+        <v>0.0767945200220608</v>
       </c>
       <c r="D78">
-        <v>-0.004365955584995801</v>
+        <v>-0.005402252931352742</v>
       </c>
       <c r="E78">
-        <v>-0.01004181127887088</v>
+        <v>0.01599874180596178</v>
       </c>
       <c r="F78">
-        <v>-0.05147256843981318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06789756846917876</v>
+      </c>
+      <c r="G78">
+        <v>-0.01493494481837985</v>
+      </c>
+      <c r="H78">
+        <v>0.01432178843249017</v>
+      </c>
+      <c r="I78">
+        <v>0.04978274007237336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.06151816652838529</v>
+        <v>0.1354732524755743</v>
       </c>
       <c r="C80">
-        <v>-0.03228222737761653</v>
+        <v>-0.05010837921723562</v>
       </c>
       <c r="D80">
-        <v>0.01937689301180575</v>
+        <v>-0.9746590955873977</v>
       </c>
       <c r="E80">
-        <v>0.8968338880383131</v>
+        <v>-0.06081871747011502</v>
       </c>
       <c r="F80">
-        <v>-0.3454015483754292</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04802074108970931</v>
+      </c>
+      <c r="G80">
+        <v>0.03122023947598339</v>
+      </c>
+      <c r="H80">
+        <v>0.03761376245274063</v>
+      </c>
+      <c r="I80">
+        <v>-0.09630133999144802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1600826343490366</v>
+        <v>0.1797738949659744</v>
       </c>
       <c r="C81">
-        <v>-0.01343442784071456</v>
+        <v>0.002847675236039229</v>
       </c>
       <c r="D81">
-        <v>-0.05133756784027427</v>
+        <v>0.006489491259877583</v>
       </c>
       <c r="E81">
-        <v>0.05290451193087622</v>
+        <v>0.08346303097825168</v>
       </c>
       <c r="F81">
-        <v>0.1658429937819016</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1581233546328624</v>
+      </c>
+      <c r="G81">
+        <v>-0.001235287123612647</v>
+      </c>
+      <c r="H81">
+        <v>-0.02317584677587234</v>
+      </c>
+      <c r="I81">
+        <v>0.01377759050139213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09265298467070317</v>
+        <v>0.06899615977174843</v>
       </c>
       <c r="C83">
-        <v>0.08597515222832483</v>
+        <v>0.05886410852654567</v>
       </c>
       <c r="D83">
-        <v>0.0436723454523847</v>
+        <v>0.0137358229315345</v>
       </c>
       <c r="E83">
-        <v>-0.04232355391347353</v>
+        <v>-0.03156522410246265</v>
       </c>
       <c r="F83">
-        <v>0.00116934584176334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04562765464901331</v>
+      </c>
+      <c r="G83">
+        <v>-0.04900124157488247</v>
+      </c>
+      <c r="H83">
+        <v>0.06412893844640444</v>
+      </c>
+      <c r="I83">
+        <v>0.05273558197844281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.239097434713678</v>
+        <v>0.2481843017358047</v>
       </c>
       <c r="C85">
-        <v>0.01968357128013921</v>
+        <v>0.04561456342961203</v>
       </c>
       <c r="D85">
-        <v>-0.07775468401408633</v>
+        <v>0.006061799292563121</v>
       </c>
       <c r="E85">
-        <v>0.08350469197066959</v>
+        <v>0.1114686539151461</v>
       </c>
       <c r="F85">
-        <v>0.1378685190911453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1848343073712274</v>
+      </c>
+      <c r="G85">
+        <v>-0.008059144026828235</v>
+      </c>
+      <c r="H85">
+        <v>-0.02098123460453865</v>
+      </c>
+      <c r="I85">
+        <v>0.07490965908207571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.041188883445307</v>
+        <v>0.02730633081685594</v>
       </c>
       <c r="C86">
-        <v>0.04641508826145505</v>
+        <v>0.05307264759538115</v>
       </c>
       <c r="D86">
-        <v>-0.02364872532134357</v>
+        <v>0.001105048620353698</v>
       </c>
       <c r="E86">
-        <v>-0.03012682709364106</v>
+        <v>0.02079068314294519</v>
       </c>
       <c r="F86">
-        <v>-0.06168031247874897</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07904839124927776</v>
+      </c>
+      <c r="G86">
+        <v>-0.06320853733166976</v>
+      </c>
+      <c r="H86">
+        <v>0.005468521692456881</v>
+      </c>
+      <c r="I86">
+        <v>0.05460035804264943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02325881375388118</v>
+        <v>0.02941201104027132</v>
       </c>
       <c r="C87">
-        <v>-0.04527371537158143</v>
+        <v>-0.006810585230314705</v>
       </c>
       <c r="D87">
-        <v>0.01497698265603923</v>
+        <v>-0.003759437380839268</v>
       </c>
       <c r="E87">
-        <v>-0.018848000595039</v>
+        <v>-0.002972866583588817</v>
       </c>
       <c r="F87">
-        <v>-0.0966285899825987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09958129139764491</v>
+      </c>
+      <c r="G87">
+        <v>-0.02346585415189069</v>
+      </c>
+      <c r="H87">
+        <v>-0.01412862789428752</v>
+      </c>
+      <c r="I87">
+        <v>0.02886864840876317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02695422672798797</v>
+        <v>0.03183308031325859</v>
       </c>
       <c r="C88">
-        <v>0.02088980652316203</v>
+        <v>0.01029365029572807</v>
       </c>
       <c r="D88">
-        <v>-0.02181641641533712</v>
+        <v>-0.007080821337481107</v>
       </c>
       <c r="E88">
-        <v>0.01329881132550216</v>
+        <v>0.007588790146054274</v>
       </c>
       <c r="F88">
-        <v>0.009659230141458364</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01442122285105639</v>
+      </c>
+      <c r="G88">
+        <v>-0.02525349146994363</v>
+      </c>
+      <c r="H88">
+        <v>0.04167957064162908</v>
+      </c>
+      <c r="I88">
+        <v>0.009457299752752875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03180065421282036</v>
+        <v>0.08944301569796231</v>
       </c>
       <c r="C89">
-        <v>-0.3599315623564839</v>
+        <v>-0.3890337606995696</v>
       </c>
       <c r="D89">
-        <v>0.1891853454666503</v>
+        <v>0.05128351285269052</v>
       </c>
       <c r="E89">
-        <v>-0.04831798540909612</v>
+        <v>-0.09486521208452672</v>
       </c>
       <c r="F89">
-        <v>0.01398339428789398</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03689945338313039</v>
+      </c>
+      <c r="G89">
+        <v>-0.1077666933677803</v>
+      </c>
+      <c r="H89">
+        <v>0.04230977278740317</v>
+      </c>
+      <c r="I89">
+        <v>0.08623023806179149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02303650082540789</v>
+        <v>0.05741888361598409</v>
       </c>
       <c r="C90">
-        <v>-0.2871813568393908</v>
+        <v>-0.3212598379316279</v>
       </c>
       <c r="D90">
-        <v>0.1256558285589294</v>
+        <v>0.02377565034385322</v>
       </c>
       <c r="E90">
-        <v>-0.007624599825102356</v>
+        <v>-0.07742006082571982</v>
       </c>
       <c r="F90">
-        <v>-0.05404276472732364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03700419111264119</v>
+      </c>
+      <c r="G90">
+        <v>-0.05499331813775918</v>
+      </c>
+      <c r="H90">
+        <v>0.01853446982573475</v>
+      </c>
+      <c r="I90">
+        <v>0.07007308013952802</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2751923851980918</v>
+        <v>0.2879381249047103</v>
       </c>
       <c r="C91">
-        <v>0.02735810863569957</v>
+        <v>0.05093089275689657</v>
       </c>
       <c r="D91">
-        <v>-0.08419414484234684</v>
+        <v>0.01488700090756237</v>
       </c>
       <c r="E91">
-        <v>0.1207989244248595</v>
+        <v>0.1073776678698409</v>
       </c>
       <c r="F91">
-        <v>0.2491892175195667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2757216000609453</v>
+      </c>
+      <c r="G91">
+        <v>0.01348905970967378</v>
+      </c>
+      <c r="H91">
+        <v>-0.04491667774721841</v>
+      </c>
+      <c r="I91">
+        <v>0.0621671021413368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05247422285166829</v>
+        <v>0.1242730577806877</v>
       </c>
       <c r="C92">
-        <v>-0.312758187657933</v>
+        <v>-0.3717975392210449</v>
       </c>
       <c r="D92">
-        <v>0.2008010282421857</v>
+        <v>0.01072769629747616</v>
       </c>
       <c r="E92">
-        <v>0.09937216380530815</v>
+        <v>-0.1039606844972101</v>
       </c>
       <c r="F92">
-        <v>0.1141346225571191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1317317197266336</v>
+      </c>
+      <c r="G92">
+        <v>-0.3349499053643759</v>
+      </c>
+      <c r="H92">
+        <v>-0.04654182907301334</v>
+      </c>
+      <c r="I92">
+        <v>-0.1258109104763712</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.01947562369770802</v>
+        <v>0.07631077404010794</v>
       </c>
       <c r="C93">
-        <v>-0.3503582189870807</v>
+        <v>-0.3937295843012862</v>
       </c>
       <c r="D93">
-        <v>0.1737672401642695</v>
+        <v>0.0424319039024886</v>
       </c>
       <c r="E93">
-        <v>0.001901241013202283</v>
+        <v>-0.1254698621173091</v>
       </c>
       <c r="F93">
-        <v>0.01709721345693015</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.004355181531206828</v>
+      </c>
+      <c r="G93">
+        <v>-0.0275317581914467</v>
+      </c>
+      <c r="H93">
+        <v>0.05717466897555173</v>
+      </c>
+      <c r="I93">
+        <v>0.004954784997404417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2825995109041091</v>
+        <v>0.3080816850372456</v>
       </c>
       <c r="C94">
-        <v>-0.09816978665876844</v>
+        <v>-0.03857056469673786</v>
       </c>
       <c r="D94">
-        <v>-0.01692652557759088</v>
+        <v>0.04020338395172673</v>
       </c>
       <c r="E94">
-        <v>0.147704500371907</v>
+        <v>0.1187974437667133</v>
       </c>
       <c r="F94">
-        <v>0.3198671191401394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3202107565949031</v>
+      </c>
+      <c r="G94">
+        <v>-0.05872648871619526</v>
+      </c>
+      <c r="H94">
+        <v>-0.2184433640350821</v>
+      </c>
+      <c r="I94">
+        <v>0.01519981495072904</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1630995327118196</v>
+        <v>0.1311163401891764</v>
       </c>
       <c r="C95">
-        <v>0.04549876731145154</v>
+        <v>0.05848628033839665</v>
       </c>
       <c r="D95">
-        <v>-0.02325808117999161</v>
+        <v>0.08414261070750771</v>
       </c>
       <c r="E95">
-        <v>-0.01400831423238588</v>
+        <v>0.03263675309292505</v>
       </c>
       <c r="F95">
-        <v>0.3853429799040503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.109833749755354</v>
+      </c>
+      <c r="G95">
+        <v>-0.07968197153118256</v>
+      </c>
+      <c r="H95">
+        <v>0.8728713905014012</v>
+      </c>
+      <c r="I95">
+        <v>-0.3522077367194084</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2159106892909799</v>
+        <v>0.2112688469515516</v>
       </c>
       <c r="C98">
-        <v>-0.09202435669703557</v>
+        <v>-0.06439308243939434</v>
       </c>
       <c r="D98">
-        <v>0.07060124943309475</v>
+        <v>0.06412940363708264</v>
       </c>
       <c r="E98">
-        <v>-0.09341933056519612</v>
+        <v>-0.03254823690717919</v>
       </c>
       <c r="F98">
-        <v>-0.06535452946026295</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1732975286297611</v>
+      </c>
+      <c r="G98">
+        <v>0.3411644051898756</v>
+      </c>
+      <c r="H98">
+        <v>0.005390769889410758</v>
+      </c>
+      <c r="I98">
+        <v>-0.1159466062213781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02747370692981062</v>
+        <v>0.01720089584789164</v>
       </c>
       <c r="C101">
-        <v>0.01826216837649843</v>
+        <v>0.02947473645839487</v>
       </c>
       <c r="D101">
-        <v>-0.0428007915506655</v>
+        <v>-0.005297942184001056</v>
       </c>
       <c r="E101">
-        <v>-0.0174727627352694</v>
+        <v>0.03876945643594176</v>
       </c>
       <c r="F101">
-        <v>-0.0231073405983274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06040868228980015</v>
+      </c>
+      <c r="G101">
+        <v>-0.1126845111999186</v>
+      </c>
+      <c r="H101">
+        <v>-0.02474381675780761</v>
+      </c>
+      <c r="I101">
+        <v>-0.1179007046849381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.10904690089656</v>
+        <v>0.1169009695495285</v>
       </c>
       <c r="C102">
-        <v>0.01567397788666259</v>
+        <v>0.02398113097720191</v>
       </c>
       <c r="D102">
-        <v>-0.05006626025101704</v>
+        <v>-0.00546477891900076</v>
       </c>
       <c r="E102">
-        <v>0.05951644888430454</v>
+        <v>0.0544502857138825</v>
       </c>
       <c r="F102">
-        <v>0.08209045480598501</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1147141581646275</v>
+      </c>
+      <c r="G102">
+        <v>0.001924569147952118</v>
+      </c>
+      <c r="H102">
+        <v>-0.001455215818701823</v>
+      </c>
+      <c r="I102">
+        <v>0.05879593220628672</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02204471669343335</v>
+        <v>0.02902282348130696</v>
       </c>
       <c r="C103">
-        <v>0.00498659489246242</v>
+        <v>0.006987994189934035</v>
       </c>
       <c r="D103">
-        <v>-0.01571465537717572</v>
+        <v>-0.008849423625817079</v>
       </c>
       <c r="E103">
-        <v>0.004684186832426051</v>
+        <v>0.01893935159973493</v>
       </c>
       <c r="F103">
-        <v>0.03462048764178676</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02667307041587533</v>
+      </c>
+      <c r="G103">
+        <v>-0.0162451108383172</v>
+      </c>
+      <c r="H103">
+        <v>0.009909876010253321</v>
+      </c>
+      <c r="I103">
+        <v>0.01372499534903183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
